--- a/fs_mol/outputs/test/plots/support_08/highlighted_comparison.xlsx
+++ b/fs_mol/outputs/test/plots/support_08/highlighted_comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="697">
   <si>
     <t>TASK_ID</t>
   </si>
@@ -1592,6 +1592,519 @@
   </si>
   <si>
     <t>0.533+/-0.077</t>
+  </si>
+  <si>
+    <t>0.529+/-0.099</t>
+  </si>
+  <si>
+    <t>0.425+/-0.062</t>
+  </si>
+  <si>
+    <t>0.375+/-0.077</t>
+  </si>
+  <si>
+    <t>0.83+/-0.021</t>
+  </si>
+  <si>
+    <t>0.543+/-0.074</t>
+  </si>
+  <si>
+    <t>0.918+/-0.055</t>
+  </si>
+  <si>
+    <t>0.6+/-0.224</t>
+  </si>
+  <si>
+    <t>0.603+/-0.11</t>
+  </si>
+  <si>
+    <t>0.827+/-0.1</t>
+  </si>
+  <si>
+    <t>0.683+/-0.137</t>
+  </si>
+  <si>
+    <t>0.563+/-0.074</t>
+  </si>
+  <si>
+    <t>0.619+/-0.173</t>
+  </si>
+  <si>
+    <t>0.72+/-0.147</t>
+  </si>
+  <si>
+    <t>0.256+/-0.048</t>
+  </si>
+  <si>
+    <t>0.752+/-0.143</t>
+  </si>
+  <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677+/-0.215</t>
+  </si>
+  <si>
+    <t>0.673+/-0.068</t>
+  </si>
+  <si>
+    <t>0.901+/-0.076</t>
+  </si>
+  <si>
+    <t>0.512+/-0.152</t>
+  </si>
+  <si>
+    <t>0.43+/-0.048</t>
+  </si>
+  <si>
+    <t>0.504+/-0.04</t>
+  </si>
+  <si>
+    <t>0.99+/-0.022</t>
+  </si>
+  <si>
+    <t>0.51+/-0.143</t>
+  </si>
+  <si>
+    <t>0.69+/-0.094</t>
+  </si>
+  <si>
+    <t>0.709+/-0.136</t>
+  </si>
+  <si>
+    <t>0.603+/-0.124</t>
+  </si>
+  <si>
+    <t>0.786+/-0.205</t>
+  </si>
+  <si>
+    <t>0.652+/-0.175</t>
+  </si>
+  <si>
+    <t>0.559+/-0.16</t>
+  </si>
+  <si>
+    <t>0.595+/-0.078</t>
+  </si>
+  <si>
+    <t>0.9+/-0.224</t>
+  </si>
+  <si>
+    <t>0.7+/-0.274</t>
+  </si>
+  <si>
+    <t>0.725+/-0.11</t>
+  </si>
+  <si>
+    <t>0.953+/-0.03</t>
+  </si>
+  <si>
+    <t>0.783+/-0.112</t>
+  </si>
+  <si>
+    <t>0.65+/-0.025</t>
+  </si>
+  <si>
+    <t>0.62+/-0.102</t>
+  </si>
+  <si>
+    <t>0.946+/-0.027</t>
+  </si>
+  <si>
+    <t>0.501+/-0.112</t>
+  </si>
+  <si>
+    <t>0.64+/-0.351</t>
+  </si>
+  <si>
+    <t>0.31+/-0.0</t>
+  </si>
+  <si>
+    <t>0.883+/-0.112</t>
+  </si>
+  <si>
+    <t>0.867+/-0.075</t>
+  </si>
+  <si>
+    <t>0.817+/-0.149</t>
+  </si>
+  <si>
+    <t>0.933+/-0.149</t>
+  </si>
+  <si>
+    <t>0.797+/-0.136</t>
+  </si>
+  <si>
+    <t>0.567+/-0.253</t>
+  </si>
+  <si>
+    <t>0.967+/-0.075</t>
+  </si>
+  <si>
+    <t>0.541+/-0.067</t>
+  </si>
+  <si>
+    <t>0.817+/-0.207</t>
+  </si>
+  <si>
+    <t>0.662+/-0.139</t>
+  </si>
+  <si>
+    <t>0.449+/-0.046</t>
+  </si>
+  <si>
+    <t>0.282+/-0.066</t>
+  </si>
+  <si>
+    <t>0.527+/-0.047</t>
+  </si>
+  <si>
+    <t>0.867+/-0.086</t>
+  </si>
+  <si>
+    <t>0.201+/-0.056</t>
+  </si>
+  <si>
+    <t>0.413+/-0.117</t>
+  </si>
+  <si>
+    <t>0.528+/-0.039</t>
+  </si>
+  <si>
+    <t>0.533+/-0.274</t>
+  </si>
+  <si>
+    <t>0.8+/-0.274</t>
+  </si>
+  <si>
+    <t>0.907+/-0.065</t>
+  </si>
+  <si>
+    <t>0.983+/-0.037</t>
+  </si>
+  <si>
+    <t>0.679+/-0.178</t>
+  </si>
+  <si>
+    <t>0.818+/-0.022</t>
+  </si>
+  <si>
+    <t>0.78+/-0.117</t>
+  </si>
+  <si>
+    <t>0.963+/-0.012</t>
+  </si>
+  <si>
+    <t>0.649+/-0.059</t>
+  </si>
+  <si>
+    <t>0.624+/-0.096</t>
+  </si>
+  <si>
+    <t>0.712+/-0.141</t>
+  </si>
+  <si>
+    <t>0.433+/-0.091</t>
+  </si>
+  <si>
+    <t>0.837+/-0.046</t>
+  </si>
+  <si>
+    <t>0.913+/-0.044</t>
+  </si>
+  <si>
+    <t>0.786+/-0.137</t>
+  </si>
+  <si>
+    <t>0.869+/-0.049</t>
+  </si>
+  <si>
+    <t>0.967+/-0.046</t>
+  </si>
+  <si>
+    <t>0.726+/-0.141</t>
+  </si>
+  <si>
+    <t>0.912+/-0.037</t>
+  </si>
+  <si>
+    <t>0.362+/-0.085</t>
+  </si>
+  <si>
+    <t>0.532+/-0.076</t>
+  </si>
+  <si>
+    <t>0.872+/-0.026</t>
+  </si>
+  <si>
+    <t>0.495+/-0.103</t>
+  </si>
+  <si>
+    <t>0.51+/-0.155</t>
+  </si>
+  <si>
+    <t>0.62+/-0.063</t>
+  </si>
+  <si>
+    <t>0.688+/-0.081</t>
+  </si>
+  <si>
+    <t>0.591+/-0.15</t>
+  </si>
+  <si>
+    <t>0.704+/-0.183</t>
+  </si>
+  <si>
+    <t>0.75+/-0.276</t>
+  </si>
+  <si>
+    <t>0.526+/-0.115</t>
+  </si>
+  <si>
+    <t>0.954+/-0.048</t>
+  </si>
+  <si>
+    <t>0.851+/-0.142</t>
+  </si>
+  <si>
+    <t>0.453+/-0.167</t>
+  </si>
+  <si>
+    <t>0.543+/-0.119</t>
+  </si>
+  <si>
+    <t>0.355+/-0.068</t>
+  </si>
+  <si>
+    <t>0.76+/-0.052</t>
+  </si>
+  <si>
+    <t>0.976+/-0.006</t>
+  </si>
+  <si>
+    <t>0.656+/-0.045</t>
+  </si>
+  <si>
+    <t>0.794+/-0.099</t>
+  </si>
+  <si>
+    <t>0.739+/-0.147</t>
+  </si>
+  <si>
+    <t>0.637+/-0.333</t>
+  </si>
+  <si>
+    <t>0.436+/-0.11</t>
+  </si>
+  <si>
+    <t>0.436+/-0.0</t>
+  </si>
+  <si>
+    <t>0.123+/-0.019</t>
+  </si>
+  <si>
+    <t>0.349+/-0.109</t>
+  </si>
+  <si>
+    <t>0.528+/-0.123</t>
+  </si>
+  <si>
+    <t>0.548+/-0.105</t>
+  </si>
+  <si>
+    <t>0.602+/-0.032</t>
+  </si>
+  <si>
+    <t>0.649+/-0.089</t>
+  </si>
+  <si>
+    <t>0.909+/-0.074</t>
+  </si>
+  <si>
+    <t>0.711+/-0.127</t>
+  </si>
+  <si>
+    <t>0.72+/-0.139</t>
+  </si>
+  <si>
+    <t>0.267+/-0.037</t>
+  </si>
+  <si>
+    <t>0.519+/-0.11</t>
+  </si>
+  <si>
+    <t>0.592+/-0.144</t>
+  </si>
+  <si>
+    <t>0.714+/-0.147</t>
+  </si>
+  <si>
+    <t>0.672+/-0.12</t>
+  </si>
+  <si>
+    <t>0.658+/-0.197</t>
+  </si>
+  <si>
+    <t>0.821+/-0.045</t>
+  </si>
+  <si>
+    <t>0.738+/-0.072</t>
+  </si>
+  <si>
+    <t>0.517+/-0.037</t>
+  </si>
+  <si>
+    <t>0.65+/-0.171</t>
+  </si>
+  <si>
+    <t>0.721+/-0.088</t>
+  </si>
+  <si>
+    <t>0.562+/-0.068</t>
+  </si>
+  <si>
+    <t>0.59+/-0.102</t>
+  </si>
+  <si>
+    <t>0.611+/-0.093</t>
+  </si>
+  <si>
+    <t>0.786+/-0.091</t>
+  </si>
+  <si>
+    <t>0.552+/-0.107</t>
+  </si>
+  <si>
+    <t>0.852+/-0.129</t>
+  </si>
+  <si>
+    <t>0.667+/-0.312</t>
+  </si>
+  <si>
+    <t>0.733+/-0.365</t>
+  </si>
+  <si>
+    <t>0.667+/-0.135</t>
+  </si>
+  <si>
+    <t>0.594+/-0.107</t>
+  </si>
+  <si>
+    <t>0.3+/-0.112</t>
+  </si>
+  <si>
+    <t>0.772+/-0.065</t>
+  </si>
+  <si>
+    <t>0.532+/-0.211</t>
+  </si>
+  <si>
+    <t>0.613+/-0.14</t>
+  </si>
+  <si>
+    <t>0.754+/-0.048</t>
+  </si>
+  <si>
+    <t>0.717+/-0.225</t>
+  </si>
+  <si>
+    <t>0.385+/-0.051</t>
+  </si>
+  <si>
+    <t>0.607+/-0.108</t>
+  </si>
+  <si>
+    <t>0.905+/-0.041</t>
+  </si>
+  <si>
+    <t>0.643+/-0.267</t>
+  </si>
+  <si>
+    <t>0.792+/-0.052</t>
+  </si>
+  <si>
+    <t>0.576+/-0.086</t>
+  </si>
+  <si>
+    <t>0.569+/-0.169</t>
+  </si>
+  <si>
+    <t>0.64+/-0.09</t>
+  </si>
+  <si>
+    <t>0.58+/-0.066</t>
+  </si>
+  <si>
+    <t>0.915+/-0.013</t>
+  </si>
+  <si>
+    <t>0.514+/-0.059</t>
+  </si>
+  <si>
+    <t>0.718+/-0.169</t>
+  </si>
+  <si>
+    <t>0.915+/-0.09</t>
+  </si>
+  <si>
+    <t>0.981+/-0.007</t>
+  </si>
+  <si>
+    <t>0.989+/-0.008</t>
+  </si>
+  <si>
+    <t>0.845+/-0.089</t>
+  </si>
+  <si>
+    <t>0.667+/-0.156</t>
+  </si>
+  <si>
+    <t>0.816+/-0.091</t>
+  </si>
+  <si>
+    <t>0.548+/-0.125</t>
+  </si>
+  <si>
+    <t>0.567+/-0.109</t>
+  </si>
+  <si>
+    <t>0.917+/-0.118</t>
+  </si>
+  <si>
+    <t>0.617+/-0.126</t>
+  </si>
+  <si>
+    <t>0.4+/-0.091</t>
+  </si>
+  <si>
+    <t>0.669+/-0.066</t>
+  </si>
+  <si>
+    <t>0.754+/-0.016</t>
+  </si>
+  <si>
+    <t>0.657+/-0.102</t>
+  </si>
+  <si>
+    <t>0.752+/-0.03</t>
+  </si>
+  <si>
+    <t>0.8+/-0.071</t>
+  </si>
+  <si>
+    <t>0.967+/-0.021</t>
+  </si>
+  <si>
+    <t>0.75+/-0.204</t>
+  </si>
+  <si>
+    <t>0.917+/-0.186</t>
+  </si>
+  <si>
+    <t>0.649+/-0.156</t>
+  </si>
+  <si>
+    <t>0.511+/-0.053</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2524,7 @@
         <v>383</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>383</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2036,8 +2549,8 @@
       <c r="G3" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>384</v>
+      <c r="H3" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2062,8 +2575,8 @@
       <c r="G4" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>385</v>
+      <c r="H4" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2086,7 +2599,9 @@
         <v>208</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
@@ -2104,14 +2619,14 @@
       <c r="E6" s="2">
         <v>0.4705882352941176</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>386</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>386</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2134,7 +2649,9 @@
         <v>210</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
@@ -2156,7 +2673,9 @@
         <v>211</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
@@ -2180,8 +2699,8 @@
       <c r="G9" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>387</v>
+      <c r="H9" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2200,14 +2719,14 @@
       <c r="E10" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>341</v>
+      <c r="H10" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2229,11 +2748,11 @@
       <c r="F11" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>388</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>388</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2258,8 +2777,8 @@
       <c r="G12" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>389</v>
+      <c r="H12" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2285,7 +2804,7 @@
         <v>390</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>390</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2310,8 +2829,8 @@
       <c r="G14" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>391</v>
+      <c r="H14" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2337,7 +2856,7 @@
         <v>392</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>392</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2363,7 +2882,7 @@
         <v>222</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>222</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2385,11 +2904,11 @@
       <c r="F17" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>393</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>393</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2415,7 +2934,7 @@
         <v>394</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>394</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2440,8 +2959,8 @@
       <c r="G19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>240</v>
+      <c r="H19" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2466,8 +2985,8 @@
       <c r="G20" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>395</v>
+      <c r="H20" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2493,7 +3012,7 @@
         <v>396</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>396</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2518,8 +3037,8 @@
       <c r="G22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>225</v>
+      <c r="H22" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2545,7 +3064,7 @@
         <v>397</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>397</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2570,8 +3089,8 @@
       <c r="G24" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>398</v>
+      <c r="H24" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2597,7 +3116,7 @@
         <v>399</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>399</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2623,7 +3142,7 @@
         <v>400</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>400</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2642,14 +3161,14 @@
       <c r="E27" s="2">
         <v>0.4444444444444445</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>401</v>
+      <c r="H27" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2674,8 +3193,8 @@
       <c r="G28" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>402</v>
+      <c r="H28" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2700,8 +3219,8 @@
       <c r="G29" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>403</v>
+      <c r="H29" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2727,7 +3246,7 @@
         <v>404</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>404</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2752,8 +3271,8 @@
       <c r="G31" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>405</v>
+      <c r="H31" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2775,11 +3294,11 @@
       <c r="F32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>240</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2805,7 +3324,7 @@
         <v>406</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>406</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2831,7 +3350,7 @@
         <v>407</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>407</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2856,8 +3375,8 @@
       <c r="G35" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>361</v>
+      <c r="H35" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2883,7 +3402,7 @@
         <v>408</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>408</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2905,11 +3424,11 @@
       <c r="F37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>409</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>409</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2935,7 +3454,7 @@
         <v>361</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>361</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2961,7 +3480,7 @@
         <v>225</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>225</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2987,7 +3506,7 @@
         <v>410</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3009,11 +3528,11 @@
       <c r="F41" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>411</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>411</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3039,7 +3558,7 @@
         <v>412</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>412</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3058,11 +3577,13 @@
       <c r="E43" s="2">
         <v>0.75</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
@@ -3087,7 +3608,7 @@
         <v>413</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>413</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3106,11 +3627,13 @@
       <c r="E45" s="2">
         <v>0.888888888888889</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="3" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
@@ -3134,8 +3657,8 @@
       <c r="G46" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>414</v>
+      <c r="H46" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3158,7 +3681,9 @@
         <v>248</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
@@ -3182,8 +3707,8 @@
       <c r="G48" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>415</v>
+      <c r="H48" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3202,14 +3727,14 @@
       <c r="E49" s="2">
         <v>0.5</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>250</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>416</v>
+      <c r="H49" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3232,7 +3757,9 @@
         <v>251</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
@@ -3257,7 +3784,7 @@
         <v>417</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>417</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3283,7 +3810,7 @@
         <v>418</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>418</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3334,8 +3861,8 @@
       <c r="G54" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>269</v>
+      <c r="H54" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3361,7 +3888,7 @@
         <v>419</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>419</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3384,7 +3911,9 @@
         <v>255</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
@@ -3402,14 +3931,14 @@
       <c r="E57" s="2">
         <v>0.5</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>420</v>
+      <c r="H57" s="3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3435,7 +3964,7 @@
         <v>421</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>421</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3461,7 +3990,7 @@
         <v>422</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>422</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3487,7 +4016,7 @@
         <v>423</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>423</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3512,8 +4041,8 @@
       <c r="G61" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>424</v>
+      <c r="H61" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3532,11 +4061,13 @@
       <c r="E62" s="2">
         <v>0.131578947368421</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="3" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
@@ -3554,14 +4085,14 @@
       <c r="E63" s="2">
         <v>0.4794520547945205</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>425</v>
+      <c r="H63" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3613,7 +4144,7 @@
         <v>426</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>426</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3632,11 +4163,13 @@
       <c r="E66" s="2">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>265</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="3" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
@@ -3658,7 +4191,9 @@
         <v>266</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
@@ -3683,7 +4218,7 @@
         <v>427</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>427</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3702,11 +4237,13 @@
       <c r="E69" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>268</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="3" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
@@ -3731,7 +4268,7 @@
         <v>360</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>360</v>
+        <v>586</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3753,11 +4290,11 @@
       <c r="F71" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>428</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>428</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3779,11 +4316,11 @@
       <c r="F72" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>429</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3809,7 +4346,7 @@
         <v>430</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>430</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3835,7 +4372,7 @@
         <v>431</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>431</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3846,22 +4383,22 @@
         <v>80</v>
       </c>
       <c r="C75" s="2">
-        <v>0.5583333333333333</v>
+        <v>0.5472222222222222</v>
       </c>
       <c r="D75" s="2">
         <v>8</v>
       </c>
       <c r="E75" s="2">
-        <v>0.575</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>432</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>432</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3883,11 +4420,11 @@
       <c r="F76" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="2" t="s">
         <v>433</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>433</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3912,8 +4449,8 @@
       <c r="G77" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>434</v>
+      <c r="H77" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3938,8 +4475,8 @@
       <c r="G78" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>435</v>
+      <c r="H78" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3965,7 +4502,7 @@
         <v>436</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>436</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3990,8 +4527,8 @@
       <c r="G80" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>437</v>
+      <c r="H80" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4010,11 +4547,13 @@
       <c r="E81" s="2">
         <v>0.7857142857142857</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>280</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="3" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1">
@@ -4038,8 +4577,8 @@
       <c r="G82" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>438</v>
+      <c r="H82" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4058,14 +4597,14 @@
       <c r="E83" s="2">
         <v>0.4444444444444445</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>282</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>439</v>
+      <c r="H83" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4090,8 +4629,8 @@
       <c r="G84" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>440</v>
+      <c r="H84" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4110,11 +4649,13 @@
       <c r="E85" s="2">
         <v>0.75</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>284</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="3" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
@@ -4132,11 +4673,13 @@
       <c r="E86" s="2">
         <v>0.25</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>285</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="H86" s="3" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
@@ -4161,7 +4704,7 @@
         <v>269</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>269</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4186,8 +4729,8 @@
       <c r="G88" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>360</v>
+      <c r="H88" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4213,7 +4756,7 @@
         <v>441</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>441</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4232,11 +4775,13 @@
       <c r="E90" s="2">
         <v>0.8461538461538461</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>288</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="H90" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
@@ -4260,8 +4805,8 @@
       <c r="G91" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>442</v>
+      <c r="H91" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4287,7 +4832,7 @@
         <v>443</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>443</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4312,8 +4857,8 @@
       <c r="G93" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>444</v>
+      <c r="H93" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4339,7 +4884,7 @@
         <v>445</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>445</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4365,7 +4910,7 @@
         <v>446</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>446</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4391,7 +4936,7 @@
         <v>239</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>239</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4417,7 +4962,7 @@
         <v>447</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>447</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4443,7 +4988,7 @@
         <v>448</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>448</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4469,7 +5014,7 @@
         <v>449</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>449</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4495,7 +5040,7 @@
         <v>450</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>450</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4520,8 +5065,8 @@
       <c r="G101" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>416</v>
+      <c r="H101" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4546,8 +5091,8 @@
       <c r="G102" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>451</v>
+      <c r="H102" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4573,7 +5118,7 @@
         <v>452</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>452</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4599,7 +5144,7 @@
         <v>453</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>453</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4624,8 +5169,8 @@
       <c r="G105" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>454</v>
+      <c r="H105" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4650,8 +5195,8 @@
       <c r="G106" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>455</v>
+      <c r="H106" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4677,7 +5222,7 @@
         <v>456</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>456</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4703,7 +5248,7 @@
         <v>457</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>457</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4722,11 +5267,13 @@
       <c r="E109" s="2">
         <v>0.9090909090909092</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>306</v>
       </c>
       <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="H109" s="3" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
@@ -4751,7 +5298,7 @@
         <v>458</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>458</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4774,7 +5321,9 @@
         <v>308</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
@@ -4799,7 +5348,7 @@
         <v>459</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4825,7 +5374,7 @@
         <v>460</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>460</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4850,8 +5399,8 @@
       <c r="G114" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>461</v>
+      <c r="H114" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4877,7 +5426,7 @@
         <v>462</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>462</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4900,7 +5449,9 @@
         <v>313</v>
       </c>
       <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="H116" s="2" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
@@ -4925,7 +5476,7 @@
         <v>463</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>463</v>
+        <v>629</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4951,7 +5502,7 @@
         <v>464</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>464</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4977,7 +5528,7 @@
         <v>465</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>465</v>
+        <v>631</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4999,11 +5550,11 @@
       <c r="F120" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="2" t="s">
         <v>466</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>466</v>
+        <v>632</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5029,7 +5580,7 @@
         <v>467</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>467</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5055,7 +5606,7 @@
         <v>468</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>468</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5074,11 +5625,13 @@
       <c r="E123" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="2" t="s">
         <v>255</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="H123" s="3" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1">
@@ -5103,7 +5656,7 @@
         <v>469</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>469</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5126,7 +5679,9 @@
         <v>211</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="H125" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1">
@@ -5151,7 +5706,7 @@
         <v>470</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>470</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5176,8 +5731,8 @@
       <c r="G127" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>471</v>
+      <c r="H127" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5203,7 +5758,7 @@
         <v>472</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>472</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5229,7 +5784,7 @@
         <v>473</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>473</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5255,7 +5810,7 @@
         <v>474</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>474</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5280,8 +5835,8 @@
       <c r="G131" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>475</v>
+      <c r="H131" s="2" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5306,8 +5861,8 @@
       <c r="G132" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>476</v>
+      <c r="H132" s="2" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5330,7 +5885,9 @@
         <v>211</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="H133" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1">
@@ -5355,7 +5912,7 @@
         <v>477</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>477</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5374,14 +5931,14 @@
       <c r="E135" s="2">
         <v>0.5</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>478</v>
+      <c r="H135" s="3" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5406,8 +5963,8 @@
       <c r="G136" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>479</v>
+      <c r="H136" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5429,11 +5986,11 @@
       <c r="F137" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>480</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>480</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5459,7 +6016,7 @@
         <v>481</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>481</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5485,7 +6042,7 @@
         <v>482</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>482</v>
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5511,7 +6068,7 @@
         <v>483</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>483</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5537,7 +6094,7 @@
         <v>484</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>484</v>
+        <v>650</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5563,7 +6120,7 @@
         <v>485</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>485</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5589,7 +6146,7 @@
         <v>486</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>486</v>
+        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5615,7 +6172,7 @@
         <v>487</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>487</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5641,7 +6198,7 @@
         <v>373</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>373</v>
+        <v>654</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5667,7 +6224,7 @@
         <v>488</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>488</v>
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5686,11 +6243,13 @@
       <c r="E147" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="2" t="s">
         <v>341</v>
       </c>
       <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
+      <c r="H147" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
@@ -5715,7 +6274,7 @@
         <v>489</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>489</v>
+        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5741,7 +6300,7 @@
         <v>490</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>490</v>
+        <v>657</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5767,7 +6326,7 @@
         <v>491</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>491</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5786,14 +6345,14 @@
       <c r="E151" s="2">
         <v>0.4615384615384615</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="2" t="s">
         <v>345</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>492</v>
+      <c r="H151" s="3" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5818,8 +6377,8 @@
       <c r="G152" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>493</v>
+      <c r="H152" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5845,7 +6404,7 @@
         <v>494</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>494</v>
+        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5864,11 +6423,13 @@
       <c r="E154" s="2">
         <v>0.7857142857142857</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="2" t="s">
         <v>348</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="H154" s="3" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1">
@@ -5892,8 +6453,8 @@
       <c r="G155" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="H155" s="3" t="s">
-        <v>495</v>
+      <c r="H155" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5918,8 +6479,8 @@
       <c r="G156" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="H156" s="3" t="s">
-        <v>496</v>
+      <c r="H156" s="2" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5945,7 +6506,7 @@
         <v>497</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>497</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5964,14 +6525,14 @@
       <c r="E158" s="2">
         <v>0.5</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F158" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H158" s="2" t="s">
-        <v>240</v>
+      <c r="H158" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5993,11 +6554,11 @@
       <c r="F159" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="2" t="s">
         <v>498</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>498</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6023,7 +6584,7 @@
         <v>499</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>499</v>
+        <v>667</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6049,7 +6610,7 @@
         <v>500</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>500</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6075,7 +6636,7 @@
         <v>501</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>501</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6101,7 +6662,7 @@
         <v>502</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>502</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6120,14 +6681,14 @@
       <c r="E164" s="2">
         <v>0.4761904761904761</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="H164" s="2" t="s">
-        <v>503</v>
+      <c r="H164" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6179,7 +6740,7 @@
         <v>504</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>504</v>
+        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6190,22 +6751,22 @@
         <v>172</v>
       </c>
       <c r="C167" s="2">
-        <v>0.8166666666666667</v>
+        <v>0.8027777777777777</v>
       </c>
       <c r="D167" s="2">
         <v>24</v>
       </c>
       <c r="E167" s="2">
-        <v>0.825</v>
+        <v>0.8250000000000001</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G167" s="2" t="s">
         <v>505</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>505</v>
+        <v>673</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6231,7 +6792,7 @@
         <v>360</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>360</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6250,14 +6811,14 @@
       <c r="E169" s="2">
         <v>0.5</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="2" t="s">
         <v>360</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H169" s="2" t="s">
-        <v>222</v>
+      <c r="H169" s="3" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6283,7 +6844,7 @@
         <v>286</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>286</v>
+        <v>532</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6308,8 +6869,8 @@
       <c r="G171" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>506</v>
+      <c r="H171" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6334,8 +6895,8 @@
       <c r="G172" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>240</v>
+      <c r="H172" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6361,7 +6922,7 @@
         <v>507</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>507</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6384,7 +6945,9 @@
         <v>364</v>
       </c>
       <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="H174" s="2" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="1">
@@ -6406,7 +6969,9 @@
         <v>365</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="H175" s="2" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="1">
@@ -6428,7 +6993,9 @@
         <v>365</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="H176" s="2" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="1">
@@ -6453,7 +7020,7 @@
         <v>508</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>508</v>
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6479,7 +7046,7 @@
         <v>509</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>509</v>
+        <v>680</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6498,11 +7065,13 @@
       <c r="E179" s="2">
         <v>0.8666666666666668</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="2" t="s">
         <v>368</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="H179" s="3" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1">
@@ -6523,11 +7092,11 @@
       <c r="F180" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="2" t="s">
         <v>510</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>510</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6552,8 +7121,8 @@
       <c r="G181" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H181" s="3" t="s">
-        <v>511</v>
+      <c r="H181" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6579,7 +7148,7 @@
         <v>225</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>225</v>
+        <v>654</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6598,14 +7167,14 @@
       <c r="E183" s="2">
         <v>0.5</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="F183" s="2" t="s">
         <v>371</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H183" s="2" t="s">
-        <v>512</v>
+      <c r="H183" s="3" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6631,7 +7200,7 @@
         <v>513</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>513</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6656,8 +7225,8 @@
       <c r="G185" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="H185" s="3" t="s">
-        <v>514</v>
+      <c r="H185" s="2" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6705,11 +7274,11 @@
       <c r="F187" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="G187" s="2" t="s">
         <v>515</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>515</v>
+        <v>557</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6734,8 +7303,8 @@
       <c r="G188" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>516</v>
+      <c r="H188" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6754,14 +7323,14 @@
       <c r="E189" s="2">
         <v>0.4883720930232558</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" s="2" t="s">
         <v>375</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H189" s="2" t="s">
-        <v>517</v>
+      <c r="H189" s="3" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6786,8 +7355,8 @@
       <c r="G190" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="H190" s="3" t="s">
-        <v>518</v>
+      <c r="H190" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6812,8 +7381,8 @@
       <c r="G191" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H191" s="2" t="s">
-        <v>239</v>
+      <c r="H191" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6839,7 +7408,7 @@
         <v>519</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>519</v>
+        <v>690</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6864,8 +7433,8 @@
       <c r="G193" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="H193" s="3" t="s">
-        <v>520</v>
+      <c r="H193" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6890,8 +7459,8 @@
       <c r="G194" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="H194" s="3" t="s">
-        <v>521</v>
+      <c r="H194" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6917,7 +7486,7 @@
         <v>522</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>522</v>
+        <v>693</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6942,8 +7511,8 @@
       <c r="G196" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>211</v>
+      <c r="H196" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6968,8 +7537,8 @@
       <c r="G197" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="H197" s="3" t="s">
-        <v>523</v>
+      <c r="H197" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6995,7 +7564,7 @@
         <v>524</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>524</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7021,7 +7590,7 @@
         <v>525</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>525</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/fs_mol/outputs/test/plots/support_08/highlighted_comparison.xlsx
+++ b/fs_mol/outputs/test/plots/support_08/highlighted_comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="998">
   <si>
     <t>TASK_ID</t>
   </si>
@@ -37,6 +37,12 @@
     <t>8_train (RF)</t>
   </si>
   <si>
+    <t>8_train (GNN-MT-O)</t>
+  </si>
+  <si>
+    <t>8_train (PN-O)</t>
+  </si>
+  <si>
     <t>1033985</t>
   </si>
   <si>
@@ -2105,6 +2111,903 @@
   </si>
   <si>
     <t>0.511+/-0.053</t>
+  </si>
+  <si>
+    <t>0.574+/-0.107</t>
+  </si>
+  <si>
+    <t>0.362+/-0.06</t>
+  </si>
+  <si>
+    <t>0.616+/-0.187</t>
+  </si>
+  <si>
+    <t>0.528+/-0.098</t>
+  </si>
+  <si>
+    <t>0.587+/-0.036</t>
+  </si>
+  <si>
+    <t>0.76+/-0.141</t>
+  </si>
+  <si>
+    <t>0.847+/-0.153</t>
+  </si>
+  <si>
+    <t>0.509+/-0.082</t>
+  </si>
+  <si>
+    <t>0.626+/-0.13</t>
+  </si>
+  <si>
+    <t>0.555+/-0.158</t>
+  </si>
+  <si>
+    <t>0.327+/-0.152</t>
+  </si>
+  <si>
+    <t>0.595+/-0.102</t>
+  </si>
+  <si>
+    <t>0.695+/-0.106</t>
+  </si>
+  <si>
+    <t>0.65+/-0.111</t>
+  </si>
+  <si>
+    <t>0.682+/-0.252</t>
+  </si>
+  <si>
+    <t>0.641+/-0.113</t>
+  </si>
+  <si>
+    <t>0.452+/-0.042</t>
+  </si>
+  <si>
+    <t>0.577+/-0.088</t>
+  </si>
+  <si>
+    <t>0.798+/-0.15</t>
+  </si>
+  <si>
+    <t>0.452+/-0.1</t>
+  </si>
+  <si>
+    <t>0.777+/-0.071</t>
+  </si>
+  <si>
+    <t>0.809+/-0.081</t>
+  </si>
+  <si>
+    <t>0.661+/-0.139</t>
+  </si>
+  <si>
+    <t>0.808+/-0.09</t>
+  </si>
+  <si>
+    <t>0.718+/-0.059</t>
+  </si>
+  <si>
+    <t>0.387+/-0.078</t>
+  </si>
+  <si>
+    <t>0.611+/-0.048</t>
+  </si>
+  <si>
+    <t>0.758+/-0.071</t>
+  </si>
+  <si>
+    <t>0.935+/-0.015</t>
+  </si>
+  <si>
+    <t>0.917+/-0.088</t>
+  </si>
+  <si>
+    <t>0.585+/-0.139</t>
+  </si>
+  <si>
+    <t>0.514+/-0.134</t>
+  </si>
+  <si>
+    <t>0.452+/-0.166</t>
+  </si>
+  <si>
+    <t>0.683+/-0.192</t>
+  </si>
+  <si>
+    <t>0.736+/-0.178</t>
+  </si>
+  <si>
+    <t>0.992+/-0.026</t>
+  </si>
+  <si>
+    <t>0.585+/-0.157</t>
+  </si>
+  <si>
+    <t>0.892+/-0.118</t>
+  </si>
+  <si>
+    <t>0.506+/-0.044</t>
+  </si>
+  <si>
+    <t>0.7+/-0.177</t>
+  </si>
+  <si>
+    <t>0.658+/-0.146</t>
+  </si>
+  <si>
+    <t>0.603+/-0.15</t>
+  </si>
+  <si>
+    <t>0.538+/-0.062</t>
+  </si>
+  <si>
+    <t>0.892+/-0.18</t>
+  </si>
+  <si>
+    <t>0.849+/-0.111</t>
+  </si>
+  <si>
+    <t>0.484+/-0.131</t>
+  </si>
+  <si>
+    <t>0.712+/-0.237</t>
+  </si>
+  <si>
+    <t>0.939+/-0.084</t>
+  </si>
+  <si>
+    <t>0.573+/-0.092</t>
+  </si>
+  <si>
+    <t>0.759+/-0.064</t>
+  </si>
+  <si>
+    <t>0.785+/-0.107</t>
+  </si>
+  <si>
+    <t>0.826+/-0.096</t>
+  </si>
+  <si>
+    <t>0.812+/-0.088</t>
+  </si>
+  <si>
+    <t>0.77+/-0.097</t>
+  </si>
+  <si>
+    <t>0.757+/-0.138</t>
+  </si>
+  <si>
+    <t>0.938+/-0.045</t>
+  </si>
+  <si>
+    <t>0.601+/-0.155</t>
+  </si>
+  <si>
+    <t>0.848+/-0.075</t>
+  </si>
+  <si>
+    <t>0.74+/-0.093</t>
+  </si>
+  <si>
+    <t>0.423+/-0.104</t>
+  </si>
+  <si>
+    <t>0.526+/-0.124</t>
+  </si>
+  <si>
+    <t>0.862+/-0.086</t>
+  </si>
+  <si>
+    <t>0.471+/-0.068</t>
+  </si>
+  <si>
+    <t>0.569+/-0.231</t>
+  </si>
+  <si>
+    <t>0.602+/-0.087</t>
+  </si>
+  <si>
+    <t>0.661+/-0.102</t>
+  </si>
+  <si>
+    <t>0.758+/-0.19</t>
+  </si>
+  <si>
+    <t>0.738+/-0.182</t>
+  </si>
+  <si>
+    <t>0.867+/-0.209</t>
+  </si>
+  <si>
+    <t>0.599+/-0.208</t>
+  </si>
+  <si>
+    <t>0.89+/-0.066</t>
+  </si>
+  <si>
+    <t>0.92+/-0.048</t>
+  </si>
+  <si>
+    <t>0.737+/-0.055</t>
+  </si>
+  <si>
+    <t>0.622+/-0.217</t>
+  </si>
+  <si>
+    <t>0.444+/-0.139</t>
+  </si>
+  <si>
+    <t>0.738+/-0.038</t>
+  </si>
+  <si>
+    <t>0.612+/-0.054</t>
+  </si>
+  <si>
+    <t>0.727+/-0.123</t>
+  </si>
+  <si>
+    <t>0.854+/-0.172</t>
+  </si>
+  <si>
+    <t>0.532+/-0.155</t>
+  </si>
+  <si>
+    <t>0.466+/-0.083</t>
+  </si>
+  <si>
+    <t>0.337+/-0.097</t>
+  </si>
+  <si>
+    <t>0.517+/-0.078</t>
+  </si>
+  <si>
+    <t>0.537+/-0.086</t>
+  </si>
+  <si>
+    <t>0.527+/-0.124</t>
+  </si>
+  <si>
+    <t>0.558+/-0.084</t>
+  </si>
+  <si>
+    <t>0.944+/-0.075</t>
+  </si>
+  <si>
+    <t>0.635+/-0.102</t>
+  </si>
+  <si>
+    <t>0.582+/-0.054</t>
+  </si>
+  <si>
+    <t>0.542+/-0.329</t>
+  </si>
+  <si>
+    <t>0.622+/-0.098</t>
+  </si>
+  <si>
+    <t>0.719+/-0.187</t>
+  </si>
+  <si>
+    <t>0.735+/-0.07</t>
+  </si>
+  <si>
+    <t>0.731+/-0.063</t>
+  </si>
+  <si>
+    <t>0.719+/-0.197</t>
+  </si>
+  <si>
+    <t>0.748+/-0.051</t>
+  </si>
+  <si>
+    <t>0.634+/-0.108</t>
+  </si>
+  <si>
+    <t>0.608+/-0.18</t>
+  </si>
+  <si>
+    <t>0.567+/-0.196</t>
+  </si>
+  <si>
+    <t>0.643+/-0.134</t>
+  </si>
+  <si>
+    <t>0.518+/-0.065</t>
+  </si>
+  <si>
+    <t>0.626+/-0.111</t>
+  </si>
+  <si>
+    <t>0.549+/-0.089</t>
+  </si>
+  <si>
+    <t>0.708+/-0.169</t>
+  </si>
+  <si>
+    <t>0.532+/-0.053</t>
+  </si>
+  <si>
+    <t>0.648+/-0.185</t>
+  </si>
+  <si>
+    <t>0.483+/-0.277</t>
+  </si>
+  <si>
+    <t>0.717+/-0.305</t>
+  </si>
+  <si>
+    <t>0.638+/-0.022</t>
+  </si>
+  <si>
+    <t>0.553+/-0.066</t>
+  </si>
+  <si>
+    <t>0.542+/-0.315</t>
+  </si>
+  <si>
+    <t>0.515+/-0.137</t>
+  </si>
+  <si>
+    <t>0.399+/-0.105</t>
+  </si>
+  <si>
+    <t>0.552+/-0.084</t>
+  </si>
+  <si>
+    <t>0.808+/-0.189</t>
+  </si>
+  <si>
+    <t>0.463+/-0.06</t>
+  </si>
+  <si>
+    <t>0.689+/-0.17</t>
+  </si>
+  <si>
+    <t>0.922+/-0.045</t>
+  </si>
+  <si>
+    <t>0.895+/-0.18</t>
+  </si>
+  <si>
+    <t>0.681+/-0.114</t>
+  </si>
+  <si>
+    <t>0.596+/-0.075</t>
+  </si>
+  <si>
+    <t>0.572+/-0.123</t>
+  </si>
+  <si>
+    <t>0.452+/-0.052</t>
+  </si>
+  <si>
+    <t>0.438+/-0.375</t>
+  </si>
+  <si>
+    <t>0.561+/-0.062</t>
+  </si>
+  <si>
+    <t>0.894+/-0.056</t>
+  </si>
+  <si>
+    <t>0.499+/-0.049</t>
+  </si>
+  <si>
+    <t>0.933+/-0.211</t>
+  </si>
+  <si>
+    <t>0.623+/-0.171</t>
+  </si>
+  <si>
+    <t>0.799+/-0.062</t>
+  </si>
+  <si>
+    <t>0.717+/-0.119</t>
+  </si>
+  <si>
+    <t>0.455+/-0.082</t>
+  </si>
+  <si>
+    <t>0.75+/-0.184</t>
+  </si>
+  <si>
+    <t>0.717+/-0.197</t>
+  </si>
+  <si>
+    <t>0.383+/-0.081</t>
+  </si>
+  <si>
+    <t>0.917+/-0.204</t>
+  </si>
+  <si>
+    <t>0.875+/-0.087</t>
+  </si>
+  <si>
+    <t>0.646+/-0.121</t>
+  </si>
+  <si>
+    <t>0.797+/-0.059</t>
+  </si>
+  <si>
+    <t>0.8+/-0.069</t>
+  </si>
+  <si>
+    <t>0.75+/-0.037</t>
+  </si>
+  <si>
+    <t>0.794+/-0.128</t>
+  </si>
+  <si>
+    <t>0.833+/-0.333</t>
+  </si>
+  <si>
+    <t>0.867+/-0.168</t>
+  </si>
+  <si>
+    <t>0.564+/-0.091</t>
+  </si>
+  <si>
+    <t>0.489+/-0.066</t>
+  </si>
+  <si>
+    <t>0.572+/-0.103</t>
+  </si>
+  <si>
+    <t>0.42+/-0.082</t>
+  </si>
+  <si>
+    <t>0.567+/-0.183</t>
+  </si>
+  <si>
+    <t>0.783+/-0.064</t>
+  </si>
+  <si>
+    <t>0.488+/-0.089</t>
+  </si>
+  <si>
+    <t>0.91+/-0.023</t>
+  </si>
+  <si>
+    <t>0.653+/-0.043</t>
+  </si>
+  <si>
+    <t>0.815+/-0.141</t>
+  </si>
+  <si>
+    <t>0.784+/-0.034</t>
+  </si>
+  <si>
+    <t>0.709+/-0.153</t>
+  </si>
+  <si>
+    <t>0.686+/-0.19</t>
+  </si>
+  <si>
+    <t>0.28+/-0.057</t>
+  </si>
+  <si>
+    <t>0.877+/-0.055</t>
+  </si>
+  <si>
+    <t>0.777+/-0.107</t>
+  </si>
+  <si>
+    <t>0.813+/-0.129</t>
+  </si>
+  <si>
+    <t>0.471+/-0.061</t>
+  </si>
+  <si>
+    <t>0.548+/-0.16</t>
+  </si>
+  <si>
+    <t>0.677+/-0.108</t>
+  </si>
+  <si>
+    <t>0.951+/-0.066</t>
+  </si>
+  <si>
+    <t>0.492+/-0.133</t>
+  </si>
+  <si>
+    <t>0.819+/-0.044</t>
+  </si>
+  <si>
+    <t>0.834+/-0.08</t>
+  </si>
+  <si>
+    <t>0.644+/-0.123</t>
+  </si>
+  <si>
+    <t>0.852+/-0.071</t>
+  </si>
+  <si>
+    <t>0.758+/-0.064</t>
+  </si>
+  <si>
+    <t>0.457+/-0.182</t>
+  </si>
+  <si>
+    <t>0.648+/-0.074</t>
+  </si>
+  <si>
+    <t>0.853+/-0.106</t>
+  </si>
+  <si>
+    <t>0.811+/-0.046</t>
+  </si>
+  <si>
+    <t>0.867+/-0.131</t>
+  </si>
+  <si>
+    <t>0.621+/-0.126</t>
+  </si>
+  <si>
+    <t>0.941+/-0.033</t>
+  </si>
+  <si>
+    <t>0.668+/-0.164</t>
+  </si>
+  <si>
+    <t>0.883+/-0.249</t>
+  </si>
+  <si>
+    <t>0.492+/-0.113</t>
+  </si>
+  <si>
+    <t>0.792+/-0.158</t>
+  </si>
+  <si>
+    <t>0.758+/-0.121</t>
+  </si>
+  <si>
+    <t>0.854+/-0.117</t>
+  </si>
+  <si>
+    <t>0.85+/-0.188</t>
+  </si>
+  <si>
+    <t>0.567+/-0.118</t>
+  </si>
+  <si>
+    <t>0.917+/-0.162</t>
+  </si>
+  <si>
+    <t>0.711+/-0.094</t>
+  </si>
+  <si>
+    <t>0.736+/-0.214</t>
+  </si>
+  <si>
+    <t>0.208+/-0.074</t>
+  </si>
+  <si>
+    <t>0.519+/-0.053</t>
+  </si>
+  <si>
+    <t>0.925+/-0.025</t>
+  </si>
+  <si>
+    <t>0.213+/-0.069</t>
+  </si>
+  <si>
+    <t>0.382+/-0.229</t>
+  </si>
+  <si>
+    <t>0.524+/-0.131</t>
+  </si>
+  <si>
+    <t>0.567+/-0.238</t>
+  </si>
+  <si>
+    <t>0.855+/-0.027</t>
+  </si>
+  <si>
+    <t>0.948+/-0.165</t>
+  </si>
+  <si>
+    <t>0.887+/-0.044</t>
+  </si>
+  <si>
+    <t>0.757+/-0.042</t>
+  </si>
+  <si>
+    <t>0.907+/-0.056</t>
+  </si>
+  <si>
+    <t>0.869+/-0.081</t>
+  </si>
+  <si>
+    <t>0.681+/-0.107</t>
+  </si>
+  <si>
+    <t>0.648+/-0.11</t>
+  </si>
+  <si>
+    <t>0.843+/-0.093</t>
+  </si>
+  <si>
+    <t>0.533+/-0.258</t>
+  </si>
+  <si>
+    <t>0.903+/-0.038</t>
+  </si>
+  <si>
+    <t>0.944+/-0.061</t>
+  </si>
+  <si>
+    <t>0.697+/-0.143</t>
+  </si>
+  <si>
+    <t>0.894+/-0.107</t>
+  </si>
+  <si>
+    <t>0.675+/-0.076</t>
+  </si>
+  <si>
+    <t>0.342+/-0.092</t>
+  </si>
+  <si>
+    <t>0.79+/-0.084</t>
+  </si>
+  <si>
+    <t>0.847+/-0.06</t>
+  </si>
+  <si>
+    <t>0.481+/-0.076</t>
+  </si>
+  <si>
+    <t>0.602+/-0.131</t>
+  </si>
+  <si>
+    <t>0.889+/-0.06</t>
+  </si>
+  <si>
+    <t>0.556+/-0.124</t>
+  </si>
+  <si>
+    <t>0.702+/-0.091</t>
+  </si>
+  <si>
+    <t>0.784+/-0.081</t>
+  </si>
+  <si>
+    <t>0.869+/-0.112</t>
+  </si>
+  <si>
+    <t>0.898+/-0.113</t>
+  </si>
+  <si>
+    <t>0.958+/-0.09</t>
+  </si>
+  <si>
+    <t>0.483+/-0.129</t>
+  </si>
+  <si>
+    <t>0.957+/-0.028</t>
+  </si>
+  <si>
+    <t>0.931+/-0.073</t>
+  </si>
+  <si>
+    <t>0.564+/-0.203</t>
+  </si>
+  <si>
+    <t>0.472+/-0.09</t>
+  </si>
+  <si>
+    <t>0.395+/-0.147</t>
+  </si>
+  <si>
+    <t>0.803+/-0.052</t>
+  </si>
+  <si>
+    <t>0.953+/-0.047</t>
+  </si>
+  <si>
+    <t>0.7+/-0.068</t>
+  </si>
+  <si>
+    <t>0.783+/-0.084</t>
+  </si>
+  <si>
+    <t>0.813+/-0.06</t>
+  </si>
+  <si>
+    <t>0.95+/-0.081</t>
+  </si>
+  <si>
+    <t>0.423+/-0.06</t>
+  </si>
+  <si>
+    <t>0.594+/-0.136</t>
+  </si>
+  <si>
+    <t>0.17+/-0.057</t>
+  </si>
+  <si>
+    <t>0.39+/-0.093</t>
+  </si>
+  <si>
+    <t>0.672+/-0.052</t>
+  </si>
+  <si>
+    <t>0.584+/-0.069</t>
+  </si>
+  <si>
+    <t>0.484+/-0.072</t>
+  </si>
+  <si>
+    <t>0.651+/-0.081</t>
+  </si>
+  <si>
+    <t>0.916+/-0.057</t>
+  </si>
+  <si>
+    <t>0.89+/-0.058</t>
+  </si>
+  <si>
+    <t>0.777+/-0.058</t>
+  </si>
+  <si>
+    <t>0.825+/-0.29</t>
+  </si>
+  <si>
+    <t>0.49+/-0.06</t>
+  </si>
+  <si>
+    <t>0.631+/-0.176</t>
+  </si>
+  <si>
+    <t>0.673+/-0.093</t>
+  </si>
+  <si>
+    <t>0.643+/-0.103</t>
+  </si>
+  <si>
+    <t>0.557+/-0.079</t>
+  </si>
+  <si>
+    <t>0.88+/-0.042</t>
+  </si>
+  <si>
+    <t>0.702+/-0.115</t>
+  </si>
+  <si>
+    <t>0.483+/-0.066</t>
+  </si>
+  <si>
+    <t>0.8+/-0.089</t>
+  </si>
+  <si>
+    <t>0.692+/-0.101</t>
+  </si>
+  <si>
+    <t>0.715+/-0.083</t>
+  </si>
+  <si>
+    <t>0.685+/-0.084</t>
+  </si>
+  <si>
+    <t>0.974+/-0.055</t>
+  </si>
+  <si>
+    <t>0.645+/-0.111</t>
+  </si>
+  <si>
+    <t>0.953+/-0.046</t>
+  </si>
+  <si>
+    <t>0.695+/-0.067</t>
+  </si>
+  <si>
+    <t>0.606+/-0.088</t>
+  </si>
+  <si>
+    <t>0.258+/-0.026</t>
+  </si>
+  <si>
+    <t>0.823+/-0.077</t>
+  </si>
+  <si>
+    <t>0.494+/-0.154</t>
+  </si>
+  <si>
+    <t>0.759+/-0.045</t>
+  </si>
+  <si>
+    <t>0.801+/-0.056</t>
+  </si>
+  <si>
+    <t>0.808+/-0.236</t>
+  </si>
+  <si>
+    <t>0.389+/-0.023</t>
+  </si>
+  <si>
+    <t>0.736+/-0.141</t>
+  </si>
+  <si>
+    <t>0.942+/-0.052</t>
+  </si>
+  <si>
+    <t>0.78+/-0.075</t>
+  </si>
+  <si>
+    <t>0.752+/-0.088</t>
+  </si>
+  <si>
+    <t>0.673+/-0.175</t>
+  </si>
+  <si>
+    <t>0.729+/-0.116</t>
+  </si>
+  <si>
+    <t>0.663+/-0.071</t>
+  </si>
+  <si>
+    <t>0.878+/-0.056</t>
+  </si>
+  <si>
+    <t>0.474+/-0.068</t>
+  </si>
+  <si>
+    <t>0.867+/-0.281</t>
+  </si>
+  <si>
+    <t>0.69+/-0.104</t>
+  </si>
+  <si>
+    <t>0.949+/-0.022</t>
+  </si>
+  <si>
+    <t>0.78+/-0.093</t>
+  </si>
+  <si>
+    <t>0.849+/-0.029</t>
+  </si>
+  <si>
+    <t>0.512+/-0.07</t>
+  </si>
+  <si>
+    <t>0.692+/-0.18</t>
+  </si>
+  <si>
+    <t>0.85+/-0.11</t>
+  </si>
+  <si>
+    <t>0.625+/-0.181</t>
+  </si>
+  <si>
+    <t>0.417+/-0.212</t>
+  </si>
+  <si>
+    <t>0.723+/-0.091</t>
+  </si>
+  <si>
+    <t>0.802+/-0.068</t>
+  </si>
+  <si>
+    <t>0.725+/-0.092</t>
+  </si>
+  <si>
+    <t>0.78+/-0.052</t>
+  </si>
+  <si>
+    <t>0.764+/-0.045</t>
+  </si>
+  <si>
+    <t>0.899+/-0.055</t>
+  </si>
+  <si>
+    <t>0.85+/-0.161</t>
+  </si>
+  <si>
+    <t>0.731+/-0.067</t>
+  </si>
+  <si>
+    <t>0.652+/-0.113</t>
   </si>
 </sst>
 </file>
@@ -2472,13 +3375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,13 +3403,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>0.3541666666666666</v>
@@ -2518,21 +3427,27 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>528</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>0.3541666666666666</v>
@@ -2544,21 +3459,27 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>529</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>0.5</v>
@@ -2570,21 +3491,27 @@
         <v>0.4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>530</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>0.875</v>
@@ -2596,19 +3523,23 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>531</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>0.5</v>
@@ -2620,21 +3551,27 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>532</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>0.875</v>
@@ -2646,19 +3583,23 @@
         <v>0.8974358974358975</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>533</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>0.125</v>
@@ -2670,19 +3611,23 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>534</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>0.5</v>
@@ -2694,21 +3639,27 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>387</v>
+        <v>214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>535</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>0.6458333333333333</v>
@@ -2720,21 +3671,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>0.6458333333333333</v>
@@ -2746,21 +3703,27 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>536</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>0.7916666666666667</v>
@@ -2772,21 +3735,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>389</v>
+        <v>217</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>537</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>0.5</v>
@@ -2797,22 +3766,28 @@
       <c r="E13" s="2">
         <v>0.48</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>216</v>
+      <c r="F13" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>538</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>0.5</v>
@@ -2824,21 +3799,27 @@
         <v>0.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>391</v>
+        <v>219</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>539</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>0.5</v>
@@ -2850,21 +3831,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>540</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>0.5</v>
@@ -2876,21 +3863,27 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>0.2083333333333333</v>
@@ -2902,21 +3895,27 @@
         <v>0.25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>395</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>0.5</v>
@@ -2927,22 +3926,28 @@
       <c r="E18" s="2">
         <v>0.5</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>221</v>
+      <c r="F18" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>542</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>0.3541666666666666</v>
@@ -2954,21 +3959,27 @@
         <v>0.5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>543</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>0.3541666666666666</v>
@@ -2980,21 +3991,27 @@
         <v>0.4411764705882353</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>395</v>
+        <v>225</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>544</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>0.6458333333333333</v>
@@ -3005,22 +4022,28 @@
       <c r="E21" s="2">
         <v>0.6428571428571429</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>224</v>
+      <c r="F21" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>545</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>0.5</v>
@@ -3032,21 +4055,27 @@
         <v>0.5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>543</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>0.3541666666666666</v>
@@ -3058,21 +4087,27 @@
         <v>0.4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>546</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2">
         <v>0.3541666666666666</v>
@@ -3084,21 +4119,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>547</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
         <v>0.5</v>
@@ -3109,22 +4150,28 @@
       <c r="E25" s="2">
         <v>0.4285714285714285</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>228</v>
+      <c r="F25" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>548</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>0.5</v>
@@ -3135,22 +4182,28 @@
       <c r="E26" s="2">
         <v>0.4705882352941176</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>229</v>
+      <c r="F26" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>549</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <v>0.5</v>
@@ -3162,21 +4215,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>550</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>0.3541666666666666</v>
@@ -3188,21 +4247,27 @@
         <v>0.4</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>551</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
         <v>0.6458333333333333</v>
@@ -3214,21 +4279,27 @@
         <v>0.625</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>403</v>
+        <v>234</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>552</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>0.5</v>
@@ -3240,21 +4311,27 @@
         <v>0.5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>553</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <v>0.6458333333333333</v>
@@ -3266,21 +4343,27 @@
         <v>0.6</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>554</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>0.6458333333333333</v>
@@ -3292,21 +4375,27 @@
         <v>0.5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <v>0.3541666666666666</v>
@@ -3318,21 +4407,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>555</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>0.3541666666666666</v>
@@ -3344,21 +4439,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>556</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
         <v>0.5</v>
@@ -3370,21 +4471,27 @@
         <v>0.5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
         <v>0.2083333333333333</v>
@@ -3396,21 +4503,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>557</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>0.5</v>
@@ -3422,21 +4535,27 @@
         <v>0.5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>411</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>0.5</v>
@@ -3448,21 +4567,27 @@
         <v>0.5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
         <v>0.5</v>
@@ -3474,21 +4599,27 @@
         <v>0.5</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>560</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2">
         <v>0.6458333333333333</v>
@@ -3500,21 +4631,27 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>561</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
         <v>0.7916666666666667</v>
@@ -3526,21 +4663,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>562</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <v>0.6458333333333333</v>
@@ -3551,22 +4694,28 @@
       <c r="E42" s="2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>243</v>
+      <c r="F42" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>563</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <v>0.875</v>
@@ -3578,19 +4727,23 @@
         <v>0.75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2">
         <v>0.5</v>
@@ -3602,21 +4755,27 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>565</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2">
         <v>0.875</v>
@@ -3628,19 +4787,23 @@
         <v>0.888888888888889</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>566</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2">
         <v>0.5</v>
@@ -3652,21 +4815,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>414</v>
+        <v>249</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>567</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2">
         <v>0.125</v>
@@ -3677,20 +4846,24 @@
       <c r="E47" s="2">
         <v>0.2</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>248</v>
+      <c r="F47" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>568</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2">
         <v>0.3541666666666666</v>
@@ -3702,21 +4875,27 @@
         <v>0.3103448275862069</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>415</v>
+        <v>251</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>569</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2">
         <v>0.5</v>
@@ -3728,21 +4907,27 @@
         <v>0.5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>418</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2">
         <v>0.875</v>
@@ -3754,19 +4939,23 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>571</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2">
         <v>0.7916666666666667</v>
@@ -3778,21 +4967,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>572</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2">
         <v>0.3541666666666666</v>
@@ -3803,22 +4998,28 @@
       <c r="E52" s="2">
         <v>0.5</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>253</v>
+      <c r="F52" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>573</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2">
         <v>0.5</v>
@@ -3830,21 +5031,27 @@
         <v>0.5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2">
         <v>0.5</v>
@@ -3856,21 +5063,27 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>560</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2">
         <v>0.5</v>
@@ -3882,21 +5095,27 @@
         <v>0.5</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>574</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2">
         <v>0.125</v>
@@ -3907,20 +5126,24 @@
       <c r="E56" s="2">
         <v>0.1428571428571428</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>255</v>
+      <c r="F56" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>575</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2">
         <v>0.5</v>
@@ -3932,21 +5155,27 @@
         <v>0.5</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>576</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2">
         <v>0.5</v>
@@ -3958,21 +5187,27 @@
         <v>0.5</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>577</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2">
         <v>0.3541666666666666</v>
@@ -3983,22 +5218,28 @@
       <c r="E59" s="2">
         <v>0.5</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>258</v>
+      <c r="F59" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>578</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2">
         <v>0.6458333333333333</v>
@@ -4010,21 +5251,27 @@
         <v>0.6</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>579</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2">
         <v>0.5</v>
@@ -4036,21 +5283,27 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>424</v>
+        <v>262</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>580</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2">
         <v>0.125</v>
@@ -4062,19 +5315,23 @@
         <v>0.131578947368421</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>581</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2">
         <v>0.5</v>
@@ -4086,21 +5343,27 @@
         <v>0.4794520547945205</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>427</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2">
         <v>0.5</v>
@@ -4112,21 +5375,27 @@
         <v>0.5</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2">
         <v>0.7916666666666667</v>
@@ -4137,22 +5406,28 @@
       <c r="E65" s="2">
         <v>0.6956521739130435</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>264</v>
+      <c r="F65" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>583</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2">
         <v>0.125</v>
@@ -4164,19 +5439,23 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2">
         <v>0.125</v>
@@ -4188,19 +5467,23 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>585</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" s="2">
         <v>0.5</v>
@@ -4212,21 +5495,27 @@
         <v>0.5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>586</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C69" s="2">
         <v>0.125</v>
@@ -4238,19 +5527,23 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C70" s="2">
         <v>0.5</v>
@@ -4262,21 +5555,27 @@
         <v>0.5</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>588</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" s="2">
         <v>0.5</v>
@@ -4288,21 +5587,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>589</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C72" s="2">
         <v>0.6458333333333333</v>
@@ -4314,21 +5619,27 @@
         <v>0.6</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>590</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C73" s="2">
         <v>0.5</v>
@@ -4339,22 +5650,28 @@
       <c r="E73" s="2">
         <v>0.5294117647058824</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>272</v>
+      <c r="F73" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>591</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2">
         <v>0.7916666666666667</v>
@@ -4366,21 +5683,27 @@
         <v>0.6818181818181818</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>592</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C75" s="2">
         <v>0.5472222222222222</v>
@@ -4392,21 +5715,27 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>434</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C76" s="2">
         <v>0.7916666666666667</v>
@@ -4418,21 +5747,27 @@
         <v>0.8181818181818181</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>594</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C77" s="2">
         <v>0.5</v>
@@ -4444,21 +5779,27 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>434</v>
+        <v>278</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>595</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2">
         <v>0.5</v>
@@ -4470,21 +5811,27 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>435</v>
+        <v>279</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>596</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C79" s="2">
         <v>0.3541666666666666</v>
@@ -4495,22 +5842,28 @@
       <c r="E79" s="2">
         <v>0.5</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>278</v>
+      <c r="F79" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>597</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2">
         <v>0.5</v>
@@ -4522,21 +5875,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>598</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C81" s="2">
         <v>0.875</v>
@@ -4548,19 +5907,23 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="H81" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2">
         <v>0.7916666666666667</v>
@@ -4572,21 +5935,27 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>438</v>
+        <v>283</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>600</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C83" s="2">
         <v>0.5</v>
@@ -4598,21 +5967,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>601</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2">
         <v>0.7916666666666667</v>
@@ -4624,21 +5999,27 @@
         <v>0.8125</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>440</v>
+        <v>285</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>602</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2">
         <v>0.875</v>
@@ -4650,19 +6031,23 @@
         <v>0.75</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>603</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2">
         <v>0.125</v>
@@ -4674,19 +6059,23 @@
         <v>0.25</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>587</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2">
         <v>0.5</v>
@@ -4698,21 +6087,27 @@
         <v>0.5</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>588</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2">
         <v>0.5</v>
@@ -4724,21 +6119,27 @@
         <v>0.5</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>534</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2">
         <v>0.7916666666666667</v>
@@ -4750,21 +6151,27 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>604</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2">
         <v>0.875</v>
@@ -4776,19 +6183,23 @@
         <v>0.8461538461538461</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>605</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2">
         <v>0.3541666666666666</v>
@@ -4800,21 +6211,27 @@
         <v>0.3</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>606</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2">
         <v>0.5</v>
@@ -4826,21 +6243,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>607</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2">
         <v>0.7916666666666667</v>
@@ -4852,21 +6275,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>608</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2">
         <v>0.5</v>
@@ -4878,21 +6307,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>609</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C95" s="2">
         <v>0.3541666666666666</v>
@@ -4904,21 +6339,27 @@
         <v>0.4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>610</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2">
         <v>0.5</v>
@@ -4930,21 +6371,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>588</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2">
         <v>0.5</v>
@@ -4956,21 +6403,27 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>611</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2">
         <v>0.6458333333333333</v>
@@ -4982,21 +6435,27 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>612</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C99" s="2">
         <v>0.5</v>
@@ -5008,21 +6467,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>613</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2">
         <v>0.5</v>
@@ -5033,22 +6498,28 @@
       <c r="E100" s="2">
         <v>0.4444444444444445</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>297</v>
+      <c r="F100" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>614</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C101" s="2">
         <v>0.6458333333333333</v>
@@ -5060,21 +6531,27 @@
         <v>0.5</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>416</v>
+        <v>300</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>615</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C102" s="2">
         <v>0.5</v>
@@ -5086,21 +6563,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>451</v>
+        <v>301</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>616</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2">
         <v>0.7916666666666667</v>
@@ -5112,21 +6595,27 @@
         <v>0.8181818181818181</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>617</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2">
         <v>0.6458333333333333</v>
@@ -5137,22 +6626,28 @@
       <c r="E104" s="2">
         <v>0.7</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>301</v>
+      <c r="F104" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>618</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2">
         <v>0.5</v>
@@ -5164,21 +6659,27 @@
         <v>0.4</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>454</v>
+        <v>304</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>619</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2">
         <v>0.5</v>
@@ -5190,21 +6691,27 @@
         <v>0.4</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>455</v>
+        <v>305</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>620</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2">
         <v>0.3541666666666666</v>
@@ -5216,21 +6723,27 @@
         <v>0.3</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>621</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2">
         <v>0.5</v>
@@ -5241,22 +6754,28 @@
       <c r="E108" s="2">
         <v>0.5263157894736842</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>305</v>
+      <c r="F108" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>622</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2">
         <v>0.875</v>
@@ -5268,19 +6787,23 @@
         <v>0.9090909090909092</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>623</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2">
         <v>0.6458333333333333</v>
@@ -5291,22 +6814,28 @@
       <c r="E110" s="2">
         <v>0.6153846153846154</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>307</v>
+      <c r="F110" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>624</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2">
         <v>0.875</v>
@@ -5318,19 +6847,23 @@
         <v>0.75</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>625</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2">
         <v>0.5</v>
@@ -5342,21 +6875,27 @@
         <v>0.5</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>626</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2">
         <v>0.2083333333333333</v>
@@ -5367,22 +6906,28 @@
       <c r="E113" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>310</v>
+      <c r="F113" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>627</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2">
         <v>0.3541666666666666</v>
@@ -5394,21 +6939,27 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>628</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2">
         <v>0.3541666666666666</v>
@@ -5419,22 +6970,28 @@
       <c r="E115" s="2">
         <v>0.4358974358974359</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>312</v>
+      <c r="F115" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>629</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2">
         <v>0.125</v>
@@ -5445,20 +7002,24 @@
       <c r="E116" s="2">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>313</v>
+      <c r="F116" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>630</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2">
         <v>0.3541666666666666</v>
@@ -5470,21 +7031,27 @@
         <v>0.3023255813953488</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>631</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2">
         <v>0.3541666666666666</v>
@@ -5495,22 +7062,28 @@
       <c r="E118" s="2">
         <v>0.4038461538461538</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>315</v>
+      <c r="F118" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>632</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2">
         <v>0.5</v>
@@ -5521,22 +7094,28 @@
       <c r="E119" s="2">
         <v>0.4363636363636363</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>316</v>
+      <c r="F119" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>633</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2">
         <v>0.5</v>
@@ -5548,21 +7127,27 @@
         <v>0.48</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>634</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2">
         <v>0.5</v>
@@ -5574,21 +7159,27 @@
         <v>0.5</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>635</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2">
         <v>0.3541666666666666</v>
@@ -5600,21 +7191,27 @@
         <v>0.4</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>636</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C123" s="2">
         <v>0.125</v>
@@ -5626,19 +7223,23 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C124" s="2">
         <v>0.6458333333333333</v>
@@ -5649,22 +7250,28 @@
       <c r="E124" s="2">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>320</v>
+      <c r="F124" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>637</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C125" s="2">
         <v>0.875</v>
@@ -5676,19 +7283,23 @@
         <v>0.888888888888889</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2">
         <v>0.5</v>
@@ -5699,22 +7310,28 @@
       <c r="E126" s="2">
         <v>0.4883720930232558</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>321</v>
+      <c r="F126" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>638</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C127" s="2">
         <v>0.3541666666666666</v>
@@ -5726,21 +7343,27 @@
         <v>0.25</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>471</v>
+        <v>324</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>639</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2">
         <v>0.5</v>
@@ -5752,21 +7375,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>640</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2">
         <v>0.5</v>
@@ -5778,21 +7407,27 @@
         <v>0.5</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>641</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2">
         <v>0.6458333333333333</v>
@@ -5804,21 +7439,27 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>642</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2">
         <v>0.6458333333333333</v>
@@ -5830,21 +7471,27 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>643</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C132" s="2">
         <v>0.5</v>
@@ -5856,21 +7503,27 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>644</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C133" s="2">
         <v>0.875</v>
@@ -5882,19 +7535,23 @@
         <v>0.75</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C134" s="2">
         <v>0.7916666666666667</v>
@@ -5906,21 +7563,27 @@
         <v>0.8</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>645</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2">
         <v>0.5</v>
@@ -5932,21 +7595,27 @@
         <v>0.5</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>646</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2">
         <v>0.5</v>
@@ -5958,21 +7627,27 @@
         <v>0.5</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>479</v>
+        <v>332</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>647</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C137" s="2">
         <v>0.5</v>
@@ -5984,21 +7659,27 @@
         <v>0.5</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>648</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2">
         <v>0.5</v>
@@ -6009,22 +7690,28 @@
       <c r="E138" s="2">
         <v>0.4888888888888888</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>332</v>
+      <c r="F138" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>649</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
         <v>0.5</v>
@@ -6035,22 +7722,28 @@
       <c r="E139" s="2">
         <v>0.5</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>333</v>
+      <c r="F139" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>650</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2">
         <v>0.5</v>
@@ -6062,21 +7755,27 @@
         <v>0.5</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>651</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2">
         <v>0.5</v>
@@ -6087,22 +7786,28 @@
       <c r="E141" s="2">
         <v>0.4838709677419355</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>335</v>
+      <c r="F141" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>652</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C142" s="2">
         <v>0.5</v>
@@ -6113,22 +7818,28 @@
       <c r="E142" s="2">
         <v>0.5</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>336</v>
+      <c r="F142" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>653</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C143" s="2">
         <v>0.5</v>
@@ -6140,21 +7851,27 @@
         <v>0.5</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>654</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C144" s="2">
         <v>0.5</v>
@@ -6165,22 +7882,28 @@
       <c r="E144" s="2">
         <v>0.5</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>338</v>
+      <c r="F144" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>655</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2">
         <v>0.3541666666666666</v>
@@ -6192,21 +7915,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>656</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C146" s="2">
         <v>0.5</v>
@@ -6217,22 +7946,28 @@
       <c r="E146" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>340</v>
+      <c r="F146" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>657</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C147" s="2">
         <v>0.875</v>
@@ -6244,19 +7979,23 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C148" s="2">
         <v>0.7916666666666667</v>
@@ -6268,21 +8007,27 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>658</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C149" s="2">
         <v>0.5</v>
@@ -6294,21 +8039,27 @@
         <v>0.4761904761904761</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>659</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C150" s="2">
         <v>0.2083333333333333</v>
@@ -6319,22 +8070,28 @@
       <c r="E150" s="2">
         <v>0.25</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>344</v>
+      <c r="F150" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>660</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C151" s="2">
         <v>0.5</v>
@@ -6346,21 +8103,27 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>494</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C152" s="2">
         <v>0.3541666666666666</v>
@@ -6372,21 +8135,27 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>662</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C153" s="2">
         <v>0.5</v>
@@ -6397,22 +8166,28 @@
       <c r="E153" s="2">
         <v>0.5128205128205128</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>347</v>
+      <c r="F153" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>663</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C154" s="2">
         <v>0.875</v>
@@ -6424,19 +8199,23 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G154" s="2"/>
-      <c r="H154" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="H154" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="I154" s="2"/>
+      <c r="J154" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C155" s="2">
         <v>0.5</v>
@@ -6448,21 +8227,27 @@
         <v>0.5</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>495</v>
+        <v>351</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>665</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C156" s="2">
         <v>0.5</v>
@@ -6474,21 +8259,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>666</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C157" s="2">
         <v>0.5</v>
@@ -6500,21 +8291,27 @@
         <v>0.5</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>667</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C158" s="2">
         <v>0.6458333333333333</v>
@@ -6526,21 +8323,27 @@
         <v>0.5</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C159" s="2">
         <v>0.7916666666666667</v>
@@ -6552,21 +8355,27 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>500</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C160" s="2">
         <v>0.3541666666666666</v>
@@ -6577,22 +8386,28 @@
       <c r="E160" s="2">
         <v>0.4</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>353</v>
+      <c r="F160" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>669</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C161" s="2">
         <v>0.7916666666666667</v>
@@ -6604,21 +8419,27 @@
         <v>0.6764705882352942</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>670</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C162" s="2">
         <v>0.5</v>
@@ -6630,21 +8451,27 @@
         <v>0.5</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>671</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C163" s="2">
         <v>0.3541666666666666</v>
@@ -6656,21 +8483,27 @@
         <v>0.375</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>672</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C164" s="2">
         <v>0.5</v>
@@ -6682,21 +8515,27 @@
         <v>0.4761904761904761</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>505</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C165" s="2">
         <v>0.2083333333333333</v>
@@ -6708,21 +8547,27 @@
         <v>0.25</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C166" s="2">
         <v>0.5</v>
@@ -6734,21 +8579,27 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>674</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C167" s="2">
         <v>0.8027777777777777</v>
@@ -6760,21 +8611,27 @@
         <v>0.8250000000000001</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>675</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C168" s="2">
         <v>0.5</v>
@@ -6786,21 +8643,27 @@
         <v>0.5</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C169" s="2">
         <v>0.5</v>
@@ -6812,21 +8675,27 @@
         <v>0.5</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>559</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C170" s="2">
         <v>0.3541666666666666</v>
@@ -6837,22 +8706,28 @@
       <c r="E170" s="2">
         <v>0.5</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>361</v>
+      <c r="F170" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>534</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C171" s="2">
         <v>0.5</v>
@@ -6864,21 +8739,27 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>676</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C172" s="2">
         <v>0.5</v>
@@ -6889,22 +8770,28 @@
       <c r="E172" s="2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>240</v>
+      <c r="F172" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>657</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C173" s="2">
         <v>0.5</v>
@@ -6916,21 +8803,27 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>677</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C174" s="2">
         <v>0.875</v>
@@ -6942,19 +8835,23 @@
         <v>0.875</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>678</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C175" s="2">
         <v>0.875</v>
@@ -6965,20 +8862,24 @@
       <c r="E175" s="2">
         <v>0.9</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>365</v>
+      <c r="F175" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>679</v>
+      </c>
+      <c r="I175" s="2"/>
+      <c r="J175" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C176" s="2">
         <v>0.875</v>
@@ -6989,20 +8890,24 @@
       <c r="E176" s="2">
         <v>0.9</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>365</v>
+      <c r="F176" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>680</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C177" s="2">
         <v>0.7916666666666667</v>
@@ -7014,21 +8919,27 @@
         <v>0.7</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>681</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C178" s="2">
         <v>0.5</v>
@@ -7039,22 +8950,28 @@
       <c r="E178" s="2">
         <v>0.5</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>367</v>
+      <c r="F178" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>682</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C179" s="2">
         <v>0.875</v>
@@ -7066,19 +8983,23 @@
         <v>0.8666666666666668</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="H179" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I179" s="2"/>
+      <c r="J179" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C180" s="2">
         <v>0.5</v>
@@ -7090,21 +9011,27 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>684</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C181" s="2">
         <v>0.5</v>
@@ -7116,21 +9043,27 @@
         <v>0.5</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>511</v>
+        <v>372</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>685</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C182" s="2">
         <v>0.5</v>
@@ -7142,21 +9075,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>656</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C183" s="2">
         <v>0.5</v>
@@ -7168,21 +9107,27 @@
         <v>0.5</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H183" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>514</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C184" s="2">
         <v>0.5</v>
@@ -7193,22 +9138,28 @@
       <c r="E184" s="2">
         <v>0.5</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>372</v>
+      <c r="F184" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>687</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C185" s="2">
         <v>0.5</v>
@@ -7220,21 +9171,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>688</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C186" s="2">
         <v>0.7916666666666667</v>
@@ -7246,21 +9203,27 @@
         <v>0.5</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C187" s="2">
         <v>0.7916666666666667</v>
@@ -7272,21 +9235,27 @@
         <v>0.5</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>517</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C188" s="2">
         <v>0.6458333333333333</v>
@@ -7298,21 +9267,27 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>516</v>
+        <v>376</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>689</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C189" s="2">
         <v>0.5</v>
@@ -7324,21 +9299,27 @@
         <v>0.4883720930232558</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>519</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C190" s="2">
         <v>0.5</v>
@@ -7350,21 +9331,27 @@
         <v>0.5</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>518</v>
+        <v>378</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>691</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C191" s="2">
         <v>0.3541666666666666</v>
@@ -7376,21 +9363,27 @@
         <v>0.5</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C192" s="2">
         <v>0.7916666666666667</v>
@@ -7402,21 +9395,27 @@
         <v>0.717948717948718</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>692</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C193" s="2">
         <v>0.7916666666666667</v>
@@ -7428,21 +9427,27 @@
         <v>0.7692307692307693</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>693</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C194" s="2">
         <v>0.7916666666666667</v>
@@ -7454,21 +9459,27 @@
         <v>0.8181818181818181</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>694</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C195" s="2">
         <v>0.5</v>
@@ -7479,22 +9490,28 @@
       <c r="E195" s="2">
         <v>0.5</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>380</v>
+      <c r="F195" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>695</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C196" s="2">
         <v>0.2083333333333333</v>
@@ -7506,21 +9523,27 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>656</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C197" s="2">
         <v>0.5</v>
@@ -7532,21 +9555,27 @@
         <v>0.4</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>696</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C198" s="2">
         <v>0.5</v>
@@ -7557,22 +9586,28 @@
       <c r="E198" s="2">
         <v>0.5</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>381</v>
+      <c r="F198" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>697</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C199" s="2">
         <v>0.5</v>
@@ -7583,14 +9618,20 @@
       <c r="E199" s="2">
         <v>0.5</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>382</v>
+      <c r="F199" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>997</v>
       </c>
     </row>
   </sheetData>
